--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBonusCo.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBonusCo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453C423-DC72-4DCA-9C84-3CA2B1BA0B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0564A2-B72B-419D-8EBC-C19F5B16261C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,10 +232,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>條件記號=2時輸入
+初級   800
+中級 1,000
+高級 1,200
+條件記號=3時輸入
+一次性核發 3,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件記號=2時輸入
+初級   900
+中級 1,100
+高級 1,300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1.篩選條件-計件代碼
-2.協辦等級
-3.專業獎勵金
+      <t xml:space="preserve">1:篩選條件-計件代碼
+2:協辦等級
+3:專業獎勵金
 </t>
     </r>
     <r>
@@ -247,16 +263,16 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>4.排除商品別
-5.排除部門別
-6.是否排除15日薪非業績人員</t>
+      <t>4:排除商品別
+5:排除部門別
+6:是否排除15日薪非業績人員</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">條件記號=1時為計件代碼1位(1、2、A、B)
-條件記號=2時為協辦等級1位(1:初級、2:中級、3:高級)
+條件記號=2時為協辦等級1位(1=初級、2=中級、3=高級)
 條件記號=3時為1個空白
 </t>
     </r>
@@ -273,22 +289,6 @@
 條件記號=5時為部門別代號
 條件記號=6時為Y/N</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>條件記號=2時輸入
-初級   800
-中級 1,000
-高級 1,200
-條件記號=3時輸入
-一次性核發 3,000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>條件記號=2時輸入
-初級   900
-中級 1,100
-高級 1,300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1122,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
